--- a/results/pvalue_SIDER_rare_indication_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_indication_AUPR+AUROC.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25.474</t>
+          <t>11.065</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24.208</t>
+          <t>10.392</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.939</t>
+          <t>5.101</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.405</t>
+          <t>4.341</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.190</t>
         </is>
       </c>
     </row>
@@ -663,12 +663,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10.371</t>
+          <t>10.373</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.984</t>
+          <t>9.985</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.655</t>
+          <t>7.656</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.853</t>
+          <t>1.577</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
